--- a/media/Uploaded files/Book1_zbKEq5S.xlsx
+++ b/media/Uploaded files/Book1_zbKEq5S.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\Project\rinetech\media\Uploaded files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF01390D-867F-4355-9322-5E0FBEE76A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE99343-ED1E-4083-A554-14A3B7706A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{010F9D51-C949-428E-8C16-F1AB33BD818F}"/>
+    <workbookView xWindow="11484" yWindow="804" windowWidth="9000" windowHeight="8880" xr2:uid="{010F9D51-C949-428E-8C16-F1AB33BD818F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>ine</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>hy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">there </t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F129D7D1-2297-4AE8-A075-F0A5961695DD}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,6 +545,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
